--- a/medicine/Enfance/Édith_Moskovic/Édith_Moskovic.xlsx
+++ b/medicine/Enfance/Édith_Moskovic/Édith_Moskovic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89dith_Moskovic</t>
+          <t>Édith_Moskovic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édith Moskovic, née le 12 août 1931 à Sevlusi (Tchécoslovaquie) et morte le 7 juin 2021 à Castelnau-le-Lez[1], est une survivante de la Shoah pendant la Seconde Guerre mondiale[2]. Elle fut déléguée en Languedoc-Roussillon du Comité français pour Yad Vashem, et est nommée chevalière de la Légion d'honneur[3] en 2009.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édith Moskovic, née le 12 août 1931 à Sevlusi (Tchécoslovaquie) et morte le 7 juin 2021 à Castelnau-le-Lez, est une survivante de la Shoah pendant la Seconde Guerre mondiale. Elle fut déléguée en Languedoc-Roussillon du Comité français pour Yad Vashem, et est nommée chevalière de la Légion d'honneur en 2009.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89dith_Moskovic</t>
+          <t>Édith_Moskovic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Édith Moskovic est née le 12 août 1931 à Sevlusi (Hongrie). Elle est issue d’une famille hongroise juive ashkénaze, fille d’un père tailleur et d’une mère au foyer.  
-À cause des lois antisémites du régent Horthy, sa famille s'exile avant-guerre à Bruxelles en 1935, puis à His en Haute-Garonne, le 10 mai 1940, accueillie par une population bienveillante. Arrêtée fin 1941 par la gendarmerie française, avec ses sept frères et sœurs, Édith est internée au camp du Récebédou en Haute-Garonne[4], dans les conditions des déportés de l'Europe asservie[pas clair]. Aidée par des gardiens soudoyés, la famille s'évade et réussit à franchir la ligne de démarcation à Abbeville, en Picardie. De retour à Bruxelles, elle retrouve la maison familiale dévastée. 
+À cause des lois antisémites du régent Horthy, sa famille s'exile avant-guerre à Bruxelles en 1935, puis à His en Haute-Garonne, le 10 mai 1940, accueillie par une population bienveillante. Arrêtée fin 1941 par la gendarmerie française, avec ses sept frères et sœurs, Édith est internée au camp du Récebédou en Haute-Garonne, dans les conditions des déportés de l'Europe asservie[pas clair]. Aidée par des gardiens soudoyés, la famille s'évade et réussit à franchir la ligne de démarcation à Abbeville, en Picardie. De retour à Bruxelles, elle retrouve la maison familiale dévastée. 
 En septembre 1942, de nouvelles lois anti-juives d'exclusion totale poussent le père de famille à cacher ses huit enfants auprès de familles inconnues, le plus souvent dans la clandestinité. Âgée alors de neuf ans, Édith est confiée dans un premier temps à des voisins, dans le grenier desquels elle reste enfermée à clé, dans l'obscurité, sans pouvoir évaluer le nombre de jours passés. Elle est ensuite envoyée sous une nouvelle identité (Éliane Martin) à Ottignies, dans une institution catholique pour handicapés mentaux dirigée par Renée Jacqmotte. 
 À la Libération, elle retrouve toute sa famille saine et sauve. Devenue secrétaire médicale, mariée et mère de famille, elle se tait sur son enfance pendant 50 ans.  
-Établie à Montpellier, elle est déléguée en Languedoc-Roussillon du Comité français pour Yad Vashem, et à ce titre participe aux remises de médailles et de diplômes de Juste parmi les nations. Après un apprentissage à l’École internationale de la Shoah à Jérusalem[5], elle parle pour la première fois de son vécu d'enfant juive cachée[6], en mars 1998 à l'université du temps libre de Montpellier. Elle témoigne depuis sans relâche devant les élèves[7], et participe notamment chaque année à l'organisation du Concours national de la Résistance et de la Déportation.
-Elle meurt le 8 juin 2021[8].
+Établie à Montpellier, elle est déléguée en Languedoc-Roussillon du Comité français pour Yad Vashem, et à ce titre participe aux remises de médailles et de diplômes de Juste parmi les nations. Après un apprentissage à l’École internationale de la Shoah à Jérusalem, elle parle pour la première fois de son vécu d'enfant juive cachée, en mars 1998 à l'université du temps libre de Montpellier. Elle témoigne depuis sans relâche devant les élèves, et participe notamment chaque année à l'organisation du Concours national de la Résistance et de la Déportation.
+Elle meurt le 8 juin 2021.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89dith_Moskovic</t>
+          <t>Édith_Moskovic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Prix, hommages et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier de la Légion d'honneur, 14 juillet 2009[9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d'honneur, 14 juillet 2009
 Médaille d'honneur de Zakhor pour la Mémoire en 2007</t>
         </is>
       </c>
